--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2365258.562181149</v>
+        <v>2480875.818012939</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>110.096520216718</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2792495146817833</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>96.00712658438721</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -792,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.02128890780413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>128.5856287795295</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>227.6825399649901</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>21.31870353900211</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>45.22345353568445</v>
       </c>
       <c r="H6" t="n">
-        <v>49.70518730659407</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,22 +1025,22 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,22 +1104,22 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>95.23560805084993</v>
       </c>
       <c r="U7" t="n">
-        <v>123.0194882485343</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465022</v>
+        <v>65.76608425465005</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>165.1664578671985</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>176.1818757306626</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3351760237737</v>
+        <v>133.5587268592526</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611523</v>
+        <v>20.24979976115223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1269,7 +1271,7 @@
         <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
-        <v>231.0241379848995</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>85.73471544317876</v>
       </c>
       <c r="W10" t="n">
-        <v>82.00481436128882</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.8299898147636</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0177171766866</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>29.67382008037395</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>112.1382188876859</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>141.3831318263024</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206849</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>40.62253010341785</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>39.19314274110837</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>139.1886739667899</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>205.3566940380638</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>79.36266849663015</v>
       </c>
       <c r="F28" t="n">
-        <v>20.88994825141581</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>20.8998342062217</v>
+        <v>82.30974811734292</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3080,10 +3082,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>175.8628696806972</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.85912858529821</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>28.75188085812118</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6164309267676</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>61.17550840396296</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>219.2450387532283</v>
       </c>
       <c r="W43" t="n">
-        <v>284.948245937067</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>21.23835815356754</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>113.7076464771373</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.28849413961871</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C2" t="n">
-        <v>41.28849413961871</v>
+        <v>677.2692571593335</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>677.2692571593335</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>677.2692571593335</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>670.32375641013</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4360,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>574.0438072739746</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>307.6661507067967</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>307.6661507067967</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.28849413961871</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>452.2778269897948</v>
+        <v>423.8460189184761</v>
       </c>
       <c r="C3" t="n">
-        <v>452.2778269897948</v>
+        <v>423.8460189184761</v>
       </c>
       <c r="D3" t="n">
-        <v>303.3434173285435</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>303.3434173285435</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4416,13 +4418,13 @@
         <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>503.6022960313624</v>
       </c>
       <c r="N3" t="n">
-        <v>694.2029851278862</v>
+        <v>713.6562631339674</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>883.5948104606972</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166544</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="U3" t="n">
-        <v>887.8833378166544</v>
+        <v>678.0833756466777</v>
       </c>
       <c r="V3" t="n">
-        <v>887.8833378166544</v>
+        <v>678.0833756466777</v>
       </c>
       <c r="W3" t="n">
-        <v>633.6459810884528</v>
+        <v>423.8460189184761</v>
       </c>
       <c r="X3" t="n">
-        <v>633.6459810884528</v>
+        <v>423.8460189184761</v>
       </c>
       <c r="Y3" t="n">
-        <v>620.4931640098628</v>
+        <v>423.8460189184761</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.0184834666425</v>
+        <v>873.2070551757848</v>
       </c>
       <c r="C4" t="n">
-        <v>175.0184834666425</v>
+        <v>873.2070551757848</v>
       </c>
       <c r="D4" t="n">
-        <v>175.0184834666425</v>
+        <v>723.0904157634491</v>
       </c>
       <c r="E4" t="n">
-        <v>175.0184834666425</v>
+        <v>575.177322181056</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>428.2873746831456</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
         <v>21.09711040012049</v>
@@ -4495,10 +4497,10 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075542</v>
@@ -4510,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>659.6853352735295</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>405.0008470676427</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>175.0184834666425</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>175.0184834666425</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y4" t="n">
-        <v>175.0184834666425</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044907</v>
+        <v>410.8916005921555</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044907</v>
+        <v>410.8916005921555</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>410.8916005921555</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>410.8916005921555</v>
       </c>
       <c r="F5" t="n">
-        <v>248.7770495552872</v>
+        <v>403.946099842952</v>
       </c>
       <c r="G5" t="n">
-        <v>235.8132367818428</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991311</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358409</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298167</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>432.4256445709455</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>410.8916005921555</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>410.8916005921555</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716687</v>
+        <v>410.8916005921555</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>410.8916005921555</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>208.7010567567038</v>
+        <v>111.1428250841508</v>
       </c>
       <c r="C6" t="n">
-        <v>208.7010567567038</v>
+        <v>111.1428250841508</v>
       </c>
       <c r="D6" t="n">
-        <v>208.7010567567038</v>
+        <v>111.1428250841508</v>
       </c>
       <c r="E6" t="n">
-        <v>208.7010567567038</v>
+        <v>111.1428250841508</v>
       </c>
       <c r="F6" t="n">
-        <v>208.7010567567038</v>
+        <v>111.1428250841508</v>
       </c>
       <c r="G6" t="n">
-        <v>71.30437030577107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4650,46 +4652,46 @@
         <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T6" t="n">
-        <v>691.074259448092</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="U6" t="n">
-        <v>462.9384134849055</v>
+        <v>808.383790249628</v>
       </c>
       <c r="V6" t="n">
-        <v>462.9384134849055</v>
+        <v>573.2316820178853</v>
       </c>
       <c r="W6" t="n">
-        <v>208.7010567567038</v>
+        <v>318.9943252896837</v>
       </c>
       <c r="X6" t="n">
-        <v>208.7010567567038</v>
+        <v>111.1428250841508</v>
       </c>
       <c r="Y6" t="n">
-        <v>208.7010567567038</v>
+        <v>111.1428250841508</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>319.1268433948493</v>
+        <v>623.0783733614717</v>
       </c>
       <c r="C7" t="n">
-        <v>319.1268433948493</v>
+        <v>623.0783733614717</v>
       </c>
       <c r="D7" t="n">
-        <v>169.0102039825136</v>
+        <v>623.0783733614717</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>475.1652797790786</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
@@ -4747,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>623.0783733614717</v>
       </c>
       <c r="U7" t="n">
-        <v>801.8008824987536</v>
+        <v>623.0783733614717</v>
       </c>
       <c r="V7" t="n">
-        <v>547.1163942928667</v>
+        <v>623.0783733614717</v>
       </c>
       <c r="W7" t="n">
-        <v>547.1163942928667</v>
+        <v>623.0783733614717</v>
       </c>
       <c r="X7" t="n">
-        <v>319.1268433948493</v>
+        <v>623.0783733614717</v>
       </c>
       <c r="Y7" t="n">
-        <v>319.1268433948493</v>
+        <v>623.0783733614717</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1992.461937729943</v>
+        <v>1302.599468747557</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.461937729943</v>
+        <v>1302.599468747557</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.196239123193</v>
+        <v>944.3337701408063</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.407986524948</v>
+        <v>944.3337701408063</v>
       </c>
       <c r="F8" t="n">
-        <v>837.4220817353407</v>
+        <v>533.3478653511988</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270079</v>
+        <v>117.641643342866</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685576</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467179</v>
       </c>
       <c r="K8" t="n">
-        <v>442.175743760743</v>
+        <v>442.1757437607439</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045945</v>
+        <v>795.1862829045954</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995229</v>
+        <v>1219.647962995231</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209587</v>
+        <v>1655.59168520959</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940599</v>
+        <v>2053.905718940602</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550202</v>
+        <v>2359.356530550206</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661168</v>
+        <v>2540.564622661173</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342788</v>
+        <v>2393.727954416329</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342788</v>
+        <v>2393.727954416329</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342788</v>
+        <v>2062.665067072759</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.562760342788</v>
+        <v>2062.665067072759</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.601269705755</v>
+        <v>1689.199308811679</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.461937729943</v>
+        <v>1689.199308811679</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010873</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199603</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.122281858709</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532535</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801385</v>
       </c>
       <c r="G9" t="n">
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>71.66559839993892</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685576</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637191</v>
+        <v>113.4887579637193</v>
       </c>
       <c r="K9" t="n">
-        <v>482.5330392403165</v>
+        <v>298.0857543148193</v>
       </c>
       <c r="L9" t="n">
-        <v>1116.272322425157</v>
+        <v>592.6217377483015</v>
       </c>
       <c r="M9" t="n">
-        <v>1479.338790899458</v>
+        <v>955.6882062226039</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.423193372028</v>
+        <v>1564.570720174581</v>
       </c>
       <c r="O9" t="n">
-        <v>2198.310003359418</v>
+        <v>2198.310003359422</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789043</v>
+        <v>2445.345361789047</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251703</v>
+        <v>2424.826280251708</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685352</v>
+        <v>2230.816477685357</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751582</v>
+        <v>2002.726321751586</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519844</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791642</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586109</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821155</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>515.7821532680665</v>
+        <v>918.7378279357022</v>
       </c>
       <c r="C10" t="n">
-        <v>346.8459703401596</v>
+        <v>918.7378279357022</v>
       </c>
       <c r="D10" t="n">
-        <v>346.8459703401596</v>
+        <v>768.6211885233664</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8459703401596</v>
+        <v>620.7080949409733</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9560228422492</v>
+        <v>473.818147443063</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9560228422492</v>
+        <v>305.8310225827537</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685576</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685576</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380169</v>
+        <v>76.63468308380192</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676571</v>
+        <v>248.2500215676576</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368925</v>
+        <v>523.3850043368933</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904043</v>
+        <v>823.8653899904054</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101615</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931094</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616503</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412622</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634456</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="T10" t="n">
-        <v>1336.515802634456</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="U10" t="n">
-        <v>1047.397429129098</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="V10" t="n">
-        <v>1047.397429129098</v>
+        <v>1549.168422807489</v>
       </c>
       <c r="W10" t="n">
-        <v>964.564283309614</v>
+        <v>1549.168422807489</v>
       </c>
       <c r="X10" t="n">
-        <v>736.5747324115966</v>
+        <v>1321.178871909472</v>
       </c>
       <c r="Y10" t="n">
-        <v>515.7821532680665</v>
+        <v>1100.386292765942</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5048,16 +5050,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,19 +5117,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>150.8995423128888</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>484.8243144841094</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>980.1499206998682</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
         <v>1577.52840832642</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>2160.315914855604</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1905.631426649717</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.214256612757</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.224705714739</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="14">
@@ -5270,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,28 +5281,28 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>2757.723669558406</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>2757.723669558406</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,55 +5503,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>175.8744207939068</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3232.00962274135</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>3063.073439813443</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>2912.956800401108</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>2765.043706818714</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>2618.153759320804</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>2450.957660035684</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>4440.9326143059</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>4151.857387650098</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>4151.857387650098</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>3862.440217613137</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>3634.45066671512</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>3413.65808757159</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111748</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107584</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3192.420589669526</v>
+        <v>3301.483384420094</v>
       </c>
       <c r="C22" t="n">
-        <v>3023.484406741619</v>
+        <v>3132.547201492187</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741619</v>
+        <v>2982.430562079852</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159226</v>
+        <v>2834.517468497459</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661315</v>
+        <v>2687.627520999548</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376195</v>
+        <v>2520.431421714428</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218393</v>
+        <v>2378.719590556626</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866307</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296631</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.61201282217</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.01060699811</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729145</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389153</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098138</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671697</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650998</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305902</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T22" t="n">
-        <v>4401.343581234076</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U22" t="n">
-        <v>4112.268354578274</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="V22" t="n">
-        <v>4112.268354578274</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="W22" t="n">
-        <v>3822.851184541313</v>
+        <v>3931.913979291881</v>
       </c>
       <c r="X22" t="n">
-        <v>3594.861633643296</v>
+        <v>3703.924428393864</v>
       </c>
       <c r="Y22" t="n">
-        <v>3374.069054499766</v>
+        <v>3483.131849250334</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5978,58 +5980,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,22 +6062,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
         <v>1577.52840832642</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.53722908186</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153954</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741618</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159225</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305902</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328843</v>
+        <v>1989.631541408715</v>
       </c>
       <c r="U25" t="n">
-        <v>4221.331149328843</v>
+        <v>1700.556314752913</v>
       </c>
       <c r="V25" t="n">
-        <v>4221.331149328843</v>
+        <v>1445.871826547026</v>
       </c>
       <c r="W25" t="n">
-        <v>3931.913979291882</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X25" t="n">
-        <v>3703.924428393865</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y25" t="n">
-        <v>3483.131849250335</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6254,19 +6256,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>2567.280686761779</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>3062.606292977538</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>3659.984780604089</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>3715.300272664238</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1030.918378293891</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>861.9821953659841</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>711.8655559536484</v>
       </c>
       <c r="E28" t="n">
-        <v>197.0043242297712</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1212.566843124131</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>2565.513299557012</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>3060.83890577277</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M30" t="n">
-        <v>3658.217393399322</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>4285.815356953929</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>4285.815356953929</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3046.798896214207</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C31" t="n">
-        <v>3046.798896214207</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D31" t="n">
-        <v>2896.682256801871</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.331149328841</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122954</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.229491085994</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.239940187977</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>3228.447361044447</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6679,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>2565.513299557013</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>3060.838905772772</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>3658.217393399324</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>4285.815356953931</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>4285.815356953931</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398595</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>642.8692823226941</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C34" t="n">
-        <v>473.9330993947872</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D34" t="n">
-        <v>323.8164599824514</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>175.9033664000583</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6886,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2019.423283183833</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y34" t="n">
-        <v>824.5177471529338</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2772.332236394372</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>3369.710724020924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>3997.308687575531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>3997.308687575531</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558405</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>2757.723669558405</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.681365661313</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7168,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>251.562654109227</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>746.8882603249857</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.5477693179085</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5477693179085</v>
+        <v>814.4041655335318</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4311299055728</v>
+        <v>664.287526121196</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5180363231797</v>
+        <v>516.3744325388029</v>
       </c>
       <c r="F40" t="n">
-        <v>464.5180363231797</v>
+        <v>369.4844850408925</v>
       </c>
       <c r="G40" t="n">
-        <v>297.3219370380596</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>155.6101058802577</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7375,7 +7377,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,22 +7426,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.7772127656161</v>
+        <v>3260.450525729772</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377092</v>
+        <v>3091.514342801865</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253735</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>4401.757925742791</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>4180.29829063852</v>
       </c>
       <c r="W43" t="n">
-        <v>1400.559342807164</v>
+        <v>3890.88112060156</v>
       </c>
       <c r="X43" t="n">
-        <v>1172.569791909146</v>
+        <v>3662.891569703542</v>
       </c>
       <c r="Y43" t="n">
-        <v>951.7772127656161</v>
+        <v>3442.098990560012</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7637,61 +7639,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.388077746847</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589157</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770319</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C46" t="n">
-        <v>803.2707707770319</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>653.1541313646961</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2332.106875017495</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2112.505410040436</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1823.430183384634</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1568.745695178747</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1279.328525141787</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072716</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
   </sheetData>
@@ -8064,16 +8066,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544048</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45.78351343583188</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>26.13373767211351</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8149,7 +8151,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658823</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8298,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127214</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,19 +8534,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>186.3103888136342</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.6295957084428</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>224.0384964438452</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>304.9014880782332</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348496</v>
+        <v>20.98618304348483</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>32.89260457059964</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>111.7546635373312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>38.59775584152578</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>28.15649395853804</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>145.1398665102886</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>40.64330621514767</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>178.2123075861799</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>40.64330621514739</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>12.04875628922449</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>67.07129414993902</v>
       </c>
       <c r="F28" t="n">
-        <v>124.5310997715154</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>125.5341284403475</v>
+        <v>64.12421452922625</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>41.54258064659109</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>119.8635921600912</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>37.52737017531081</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>32.90770736550127</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>20.09032791460258</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>32.89260457059973</v>
       </c>
       <c r="W43" t="n">
-        <v>1.574752399524016</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>125.1956044930016</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>67.31863952450725</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>795507.1502079285</v>
+        <v>795507.1502079286</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>795507.1502079286</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>795507.1502079286</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>795507.1502079286</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>795507.1502079286</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="15">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
         <v>625538.614759755</v>
@@ -26335,7 +26337,7 @@
         <v>625538.614759755</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
         <v>625538.614759755</v>
@@ -26344,16 +26346,16 @@
         <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580802</v>
+        <v>390680.0076580815</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606923</v>
+        <v>507909.2320606911</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911395</v>
+        <v>68999.1544191139</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101807</v>
+        <v>95270.23779101824</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954686</v>
+        <v>132717.9756954685</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26420,43 @@
         <v>248543.2666865468</v>
       </c>
       <c r="C4" t="n">
-        <v>248543.2666865468</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662835</v>
+        <v>136854.4547662832</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756681</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756657</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756657</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
         <v>9337.20035675659</v>
@@ -26473,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567906</v>
+        <v>92902.86757567915</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-355371.6788371857</v>
+        <v>-355371.6788371863</v>
       </c>
       <c r="C6" t="n">
-        <v>324716.3017540068</v>
+        <v>324716.3017540069</v>
       </c>
       <c r="D6" t="n">
-        <v>15870.04164477671</v>
+        <v>15870.04164477572</v>
       </c>
       <c r="E6" t="n">
-        <v>7169.652518399118</v>
+        <v>7169.652518400151</v>
       </c>
       <c r="F6" t="n">
-        <v>515078.8845790916</v>
+        <v>515078.8845790912</v>
       </c>
       <c r="G6" t="n">
-        <v>515078.884579091</v>
+        <v>515078.8845790912</v>
       </c>
       <c r="H6" t="n">
-        <v>515078.8845790912</v>
+        <v>515078.8845790913</v>
       </c>
       <c r="I6" t="n">
-        <v>515078.8845790912</v>
+        <v>515078.8845790913</v>
       </c>
       <c r="J6" t="n">
-        <v>446079.7301599775</v>
+        <v>446079.7301599773</v>
       </c>
       <c r="K6" t="n">
         <v>515078.8845790913</v>
@@ -26552,16 +26554,16 @@
         <v>419808.6467880731</v>
       </c>
       <c r="M6" t="n">
-        <v>382360.9088836224</v>
+        <v>382360.9088836227</v>
       </c>
       <c r="N6" t="n">
-        <v>515078.8845790913</v>
+        <v>515078.8845790911</v>
       </c>
       <c r="O6" t="n">
-        <v>515078.8845790911</v>
+        <v>515078.8845790912</v>
       </c>
       <c r="P6" t="n">
-        <v>515078.884579091</v>
+        <v>515078.8845790912</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627838</v>
+        <v>933.7024595627848</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,22 +26795,22 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085697</v>
+        <v>640.1406900856981</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933056</v>
+        <v>319.6474457933066</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788902</v>
+        <v>434.2730407788891</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841908</v>
+        <v>376.426810084192</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139514</v>
+        <v>532.5675980139503</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015057</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841913</v>
+        <v>376.426810084192</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139509</v>
+        <v>532.5675980139503</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841908</v>
+        <v>376.426810084192</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139514</v>
+        <v>532.5675980139503</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>255.1763715542896</v>
       </c>
       <c r="D2" t="n">
-        <v>354.4037921060012</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>51.43793898025154</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,7 +27514,7 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>192.6614068695002</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>38.29803825901709</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888209</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27591,13 +27593,13 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>58.84045837160087</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
-        <v>101.6246675113629</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>306.4335549311328</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27707,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>90.79926605073899</v>
       </c>
       <c r="H6" t="n">
-        <v>49.77413296461569</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27777,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>127.9787378287159</v>
       </c>
       <c r="U7" t="n">
-        <v>163.2391422541431</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>41.49810519749133</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>193.5492249478064</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27944,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.776449164521125</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27989,7 +27991,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.776449164525729</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>166.4029278806493</v>
       </c>
       <c r="W10" t="n">
-        <v>204.5181839753022</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30271,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75357772688556</v>
+        <v>3.753577726885564</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546676</v>
+        <v>38.4413278954668</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157559</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972536</v>
+        <v>318.580217597254</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763195</v>
+        <v>477.46916277632</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354936</v>
+        <v>592.3427171354942</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359946</v>
+        <v>659.0954050359953</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525082</v>
+        <v>669.760257752509</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307899</v>
+        <v>632.4356192307906</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983025</v>
+        <v>539.7691690983032</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542133</v>
+        <v>405.3441667542137</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864753</v>
+        <v>235.7856768864755</v>
       </c>
       <c r="S8" t="n">
-        <v>85.5346524514048</v>
+        <v>85.53465245140488</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944157</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508448</v>
+        <v>0.3002862181508451</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436934</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035142</v>
+        <v>19.39634732035144</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026277</v>
+        <v>69.14683309026285</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079429</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502171</v>
+        <v>324.3030514502175</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571284</v>
+        <v>436.065474157129</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617171</v>
+        <v>508.8678404617177</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152219</v>
+        <v>522.3360580152224</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519088</v>
+        <v>477.8354464519093</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947593</v>
+        <v>383.5050724947597</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463704</v>
+        <v>256.3629847463707</v>
       </c>
       <c r="R9" t="n">
-        <v>124.693320920479</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366403</v>
+        <v>37.30405581366407</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133943</v>
+        <v>8.095024154133952</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419036</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752561</v>
+        <v>1.683725746752563</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840007</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415884</v>
+        <v>50.6342251841589</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954062</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772522</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490126</v>
+        <v>250.3240987490128</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023128</v>
+        <v>263.9316641023131</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462352</v>
+        <v>257.6559590462355</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046257</v>
+        <v>237.9869810046259</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708733</v>
+        <v>203.6389757708735</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939805</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307421</v>
+        <v>75.70643221307429</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3427477865878</v>
+        <v>29.34274778658783</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942758</v>
+        <v>7.194100917942766</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650342</v>
+        <v>0.09183958618650352</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,22 +31837,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>182.7118610708584</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>220.7280629601519</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>595.3857163736981</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>271.1474903386692</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,19 +32794,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M24" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33035,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>187.2159464875244</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33263,10 +33265,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>307.465452939363</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33509,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>543.0832917018702</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,13 +33736,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>347.462396787309</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>295.3955842839429</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>459.3154675919703</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34447,37 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>322.6999460717718</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34784,16 +34786,16 @@
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>217.43861174566</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>144.3737377058545</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649638</v>
@@ -34869,7 +34871,7 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958076</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
@@ -35018,7 +35020,7 @@
         <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>245.5483596572286</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35033,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877685</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705674</v>
+        <v>137.5343130705677</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313389</v>
+        <v>257.3793117313394</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655063</v>
+        <v>356.576302165507</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087219</v>
+        <v>428.7491718087226</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559173</v>
+        <v>440.3471941559181</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091032</v>
+        <v>402.3374078091039</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343033</v>
+        <v>308.5361733430337</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797639</v>
+        <v>183.0384768797643</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234315</v>
+        <v>20.2001390723434</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127605</v>
+        <v>62.90656844127625</v>
       </c>
       <c r="K9" t="n">
-        <v>372.7720012894923</v>
+        <v>186.4616124758585</v>
       </c>
       <c r="L9" t="n">
-        <v>640.140690085697</v>
+        <v>297.5110943772548</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396988</v>
+        <v>366.7338065396993</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318886</v>
+        <v>615.0328423757344</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074644</v>
+        <v>640.1406900856981</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804291</v>
+        <v>249.5306650804295</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603489</v>
+        <v>116.3812106603492</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873327</v>
+        <v>25.6802301787334</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513692</v>
+        <v>173.3488267513694</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093287</v>
+        <v>277.914124009329</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641534</v>
+        <v>303.5155410641536</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254638</v>
+        <v>301.7881314254641</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186656</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.917535035767</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228595</v>
+        <v>54.82702814228612</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>55.87423440419167</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>82.88662398579288</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>453.2516824516798</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396452</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>128.5512458942248</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683835</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M24" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36613,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36683,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>55.87423440419106</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>173.4910455250327</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37072,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462711</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37157,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>409.1088842875399</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>208.9080170074349</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>157.5541453095838</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>316.7192231475259</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>191.3582339884385</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2476571.47820307</v>
+        <v>2478332.008505856</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>219.4450108596167</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="Y2" t="n">
-        <v>219.4450108596165</v>
+        <v>263.7138800015064</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10.18456372565669</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>157.5393398641228</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.2043827801368</v>
+        <v>83.40753288824286</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>212.568965117905</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565657</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>216.9755163892658</v>
       </c>
       <c r="X7" t="n">
-        <v>2.214688090590434</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>34.01815546387106</v>
       </c>
       <c r="G8" t="n">
-        <v>262.4893077485218</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.83909691614511</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115242</v>
+        <v>20.24979976115252</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.6026661256348</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099002</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>50.3457193217976</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>170.5614640466852</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>37.41782514684017</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>142.7404406203177</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>26.13627195705825</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174112</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.9742079424025</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701333</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766857</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>59.44001103519365</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701338</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272881</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>221.2030256723299</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.272891771007</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>121.8000472740347</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300.438579740743</v>
+        <v>522.1002068716691</v>
       </c>
       <c r="C2" t="n">
-        <v>300.438579740743</v>
+        <v>522.1002068716691</v>
       </c>
       <c r="D2" t="n">
-        <v>300.438579740743</v>
+        <v>522.1002068716691</v>
       </c>
       <c r="E2" t="n">
-        <v>300.438579740743</v>
+        <v>255.7225503044909</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356496</v>
+        <v>34.06092317356497</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515915</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030614</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991327</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358425</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601764</v>
       </c>
       <c r="Q2" t="n">
         <v>1054.855520006025</v>
@@ -4372,10 +4372,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>788.477863438847</v>
+        <v>788.4778634388473</v>
       </c>
       <c r="Y2" t="n">
-        <v>566.8162363079211</v>
+        <v>522.1002068716691</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>660.5440004277932</v>
+        <v>501.322152659818</v>
       </c>
       <c r="C3" t="n">
-        <v>486.0909711466662</v>
+        <v>326.869123378691</v>
       </c>
       <c r="D3" t="n">
-        <v>337.156561485415</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>177.9191064799595</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>31.38454850684442</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="G3" t="n">
-        <v>31.38454850684442</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="H3" t="n">
-        <v>31.38454850684442</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699351</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302318</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267556</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293607</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560905</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212816</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212816</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212816</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212816</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212816</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>877.3889898854188</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.519636212815</v>
+        <v>669.537489679886</v>
       </c>
       <c r="Y3" t="n">
-        <v>828.7593374478613</v>
+        <v>669.537489679886</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.4815281019473</v>
+        <v>478.7587939764143</v>
       </c>
       <c r="C4" t="n">
-        <v>144.4815281019473</v>
+        <v>309.8226110485074</v>
       </c>
       <c r="D4" t="n">
-        <v>144.4815281019473</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="E4" t="n">
-        <v>144.4815281019473</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="F4" t="n">
-        <v>144.4815281019473</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4506,7 +4506,7 @@
         <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816804</v>
       </c>
       <c r="Q4" t="n">
         <v>1054.855520006025</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640393</v>
+        <v>829.3864837640398</v>
       </c>
       <c r="U4" t="n">
-        <v>829.3864837640393</v>
+        <v>829.3864837640398</v>
       </c>
       <c r="V4" t="n">
-        <v>574.7019955581525</v>
+        <v>829.3864837640398</v>
       </c>
       <c r="W4" t="n">
-        <v>308.3243389909744</v>
+        <v>563.0088271968616</v>
       </c>
       <c r="X4" t="n">
-        <v>308.3243389909744</v>
+        <v>563.0088271968616</v>
       </c>
       <c r="Y4" t="n">
-        <v>308.3243389909744</v>
+        <v>563.0088271968616</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388467</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
         <v>307.3840804899464</v>
@@ -4558,31 +4558,31 @@
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4606,13 +4606,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
     </row>
     <row r="6">
@@ -4634,34 +4634,34 @@
         <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.177417354891</v>
+        <v>205.2577368622517</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
         <v>36.32155393434482</v>
@@ -4725,7 +4725,7 @@
         <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4734,13 +4734,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>835.6883317340389</v>
       </c>
       <c r="X7" t="n">
-        <v>1052.618461328661</v>
+        <v>607.6987808360216</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.8258821851307</v>
+        <v>386.9062016924914</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1113.126127492204</v>
+        <v>859.5449490177682</v>
       </c>
       <c r="C8" t="n">
-        <v>1113.126127492204</v>
+        <v>859.5449490177682</v>
       </c>
       <c r="D8" t="n">
-        <v>1113.126127492204</v>
+        <v>501.2792504110177</v>
       </c>
       <c r="E8" t="n">
-        <v>727.3378748939599</v>
+        <v>501.2792504110177</v>
       </c>
       <c r="F8" t="n">
-        <v>316.3519701043523</v>
+        <v>466.9174772151883</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685561</v>
+        <v>51.2112552068555</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685561</v>
+        <v>51.2112552068555</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685561</v>
+        <v>51.2112552068555</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467171</v>
+        <v>187.3702251467162</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607419</v>
+        <v>442.1757437607402</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904592</v>
+        <v>795.1862829045897</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995223</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209583</v>
+        <v>1655.591685209579</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940594</v>
+        <v>2053.90571894059</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550196</v>
+        <v>2359.356530550191</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661161</v>
+        <v>2540.564622661156</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342775</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342775</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342775</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342781</v>
+        <v>2306.981581868345</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.49987299921</v>
+        <v>1975.918694524774</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729096</v>
+        <v>1623.15003925466</v>
       </c>
       <c r="X8" t="n">
-        <v>1503.265459468016</v>
+        <v>1249.68428099358</v>
       </c>
       <c r="Y8" t="n">
-        <v>1113.126127492204</v>
+        <v>859.5449490177682</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>931.3041138965633</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>756.8510846154363</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>607.9166749541851</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>448.6792199487295</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4877,49 +4877,49 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993886</v>
+        <v>71.66559839993884</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685561</v>
+        <v>51.2112552068555</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637186</v>
+        <v>113.4887579637182</v>
       </c>
       <c r="K9" t="n">
-        <v>506.4581980381338</v>
+        <v>506.4581980381315</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9941814716149</v>
+        <v>800.9941814716119</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.060649945916</v>
+        <v>1164.060649945912</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.145052418485</v>
+        <v>1551.14505241848</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.031862405874</v>
+        <v>1883.031862405869</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789035</v>
+        <v>2445.34536178903</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342775</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342775</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251696</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685345</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1769.36860661532</v>
       </c>
       <c r="W9" t="n">
         <v>1515.131249887118</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.054243487711</v>
+        <v>715.9213805686113</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1180605598041</v>
+        <v>546.9851976407044</v>
       </c>
       <c r="D10" t="n">
-        <v>514.0014211474684</v>
+        <v>396.8685582283687</v>
       </c>
       <c r="E10" t="n">
-        <v>366.0883275650752</v>
+        <v>248.9554646459756</v>
       </c>
       <c r="F10" t="n">
-        <v>219.1983800671649</v>
+        <v>102.0655171480652</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685561</v>
+        <v>51.2112552068555</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685561</v>
+        <v>51.2112552068555</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685561</v>
+        <v>51.2112552068555</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380136</v>
+        <v>76.63468308380106</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676565</v>
+        <v>248.2500215676559</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368916</v>
+        <v>523.3850043368907</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904029</v>
+        <v>823.8653899904017</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.63564010161</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931088</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616496</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="T10" t="n">
-        <v>1463.484838359498</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="U10" t="n">
-        <v>1463.484838359498</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="V10" t="n">
-        <v>1463.484838359498</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.484838359498</v>
+        <v>1346.351975440399</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.495287461481</v>
+        <v>1118.362424542381</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.702708317951</v>
+        <v>897.569845398851</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5044,16 +5044,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5132,16 +5132,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900017</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,31 +5275,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5363,16 +5363,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,10 +5494,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5524,37 +5524,37 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,22 +6010,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6217,52 +6217,52 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797203</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398602</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492587</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474793</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466581</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123011</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.774219330013</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.239661356898</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797203</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273917</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6338,7 +6338,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
         <v>1781.463605996603</v>
@@ -6347,7 +6347,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
         <v>1111.614450297915</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356196</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232839</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408908</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429804</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578604</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797203</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1205.711814750802</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6454,58 +6454,58 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615996</v>
@@ -6530,31 +6530,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273896</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797182</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,16 +6736,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6837,34 +6837,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6922,25 +6922,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6964,7 +6964,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,16 +6973,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536373</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257305</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>555.815803413395</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>407.902709831002</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330918</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038431</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797832</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910818</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570826</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279811</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885337</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358027</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358027</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235174</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258116</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602314</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396427</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.747069396427</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727407</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583877</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7159,28 +7159,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7201,16 +7201,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852888</v>
@@ -7219,7 +7219,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7311,34 +7311,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7405,58 +7405,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
@@ -7642,25 +7642,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7675,22 +7675,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D46" t="n">
-        <v>363.7369613277355</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127309</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127268</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8154,10 +8154,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140417</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775173</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127244</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>210.4772158821376</v>
+        <v>210.477215882136</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348516</v>
+        <v>20.98618304348534</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>9.663381206337363e-12</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>75.84421273177711</v>
       </c>
     </row>
     <row r="14">
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0.9259388694754307</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>73.85777223953482</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>85.9810369877376</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365909</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>4.506629716707096</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>24.63391537253446</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>795507.1502079286</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>795507.1502079287</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>795507.1502079288</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597552</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597546</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597545</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="N2" t="n">
-        <v>625538.6147597546</v>
-      </c>
       <c r="O2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.614759755</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26371,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580782</v>
+        <v>390680.0076580766</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606938</v>
+        <v>507909.2320606954</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.510358884090614e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911476</v>
+        <v>68999.15441911416</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101756</v>
+        <v>95270.23779101711</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954693</v>
+        <v>132717.9756954696</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.454766284</v>
+        <v>136854.4547662844</v>
       </c>
       <c r="E4" t="n">
         <v>9337.20035675659</v>
@@ -26432,34 +26432,34 @@
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756653</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="L4" t="n">
         <v>9337.200356756632</v>
       </c>
-      <c r="J4" t="n">
-        <v>9337.200356756985</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756712</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756675</v>
-      </c>
       <c r="M4" t="n">
-        <v>9337.200356756795</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756628</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756652</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756615</v>
+        <v>9337.200356756552</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567892</v>
+        <v>92902.8675756788</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26493,7 +26493,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-355371.6788371861</v>
+        <v>-355371.6788371863</v>
       </c>
       <c r="C6" t="n">
-        <v>324716.3017540069</v>
+        <v>324716.3017540067</v>
       </c>
       <c r="D6" t="n">
-        <v>15870.04164477839</v>
+        <v>15870.04164477973</v>
       </c>
       <c r="E6" t="n">
-        <v>6822.273264040788</v>
+        <v>7134.914592960165</v>
       </c>
       <c r="F6" t="n">
-        <v>514731.5053247344</v>
+        <v>515044.1466536556</v>
       </c>
       <c r="G6" t="n">
-        <v>514731.5053247341</v>
+        <v>515044.1466536551</v>
       </c>
       <c r="H6" t="n">
-        <v>514731.505324734</v>
+        <v>515044.1466536553</v>
       </c>
       <c r="I6" t="n">
-        <v>514731.505324734</v>
+        <v>515044.1466536555</v>
       </c>
       <c r="J6" t="n">
-        <v>445732.3509056188</v>
+        <v>446044.9922345412</v>
       </c>
       <c r="K6" t="n">
-        <v>514731.5053247345</v>
+        <v>515044.1466536555</v>
       </c>
       <c r="L6" t="n">
-        <v>419461.2675337165</v>
+        <v>419773.9088626382</v>
       </c>
       <c r="M6" t="n">
-        <v>382013.5296292647</v>
+        <v>382326.170958186</v>
       </c>
       <c r="N6" t="n">
-        <v>514731.505324734</v>
+        <v>515044.1466536553</v>
       </c>
       <c r="O6" t="n">
-        <v>514731.5053247344</v>
+        <v>515044.1466536556</v>
       </c>
       <c r="P6" t="n">
-        <v>514731.5053247344</v>
+        <v>515044.1466536555</v>
       </c>
     </row>
   </sheetData>
@@ -26706,28 +26706,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
-      <c r="J2" t="n">
-        <v>9.65407064635154e-14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9.65407064635154e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6.586891951416936e-14</v>
-      </c>
       <c r="M2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627823</v>
+        <v>933.702459562781</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856952</v>
+        <v>640.1406900856937</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,16 +26804,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.70828809965</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26928,11 +26928,11 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
-      <c r="J2" t="n">
-        <v>6.436047097567694e-14</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.28520224371845e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.647445793304</v>
+        <v>319.6474457933026</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788914</v>
+        <v>434.2730407788928</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.426810084189</v>
+        <v>376.4268100841875</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139532</v>
+        <v>532.5675980139547</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015085</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.784862865728405e-12</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841894</v>
+        <v>376.4268100841875</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139532</v>
+        <v>532.5675980139547</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>3.218023548783847e-14</v>
-      </c>
-      <c r="O2" t="n">
-        <v>6.436047097567694e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084189</v>
+        <v>376.4268100841875</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139532</v>
+        <v>532.5675980139547</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707554</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>187.4310348820947</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>106.0172206769627</v>
       </c>
       <c r="Y2" t="n">
-        <v>166.7929277964371</v>
+        <v>122.5240586545472</v>
       </c>
     </row>
     <row r="3">
@@ -27463,7 +27463,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>33.7372402758489</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>94.1556432967968</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.62759740180047</v>
+        <v>96.42444729369444</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27596,10 +27596,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>22.80911833508463</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>142.1140765027779</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>118.2164900707556</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>136.6720035995079</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778209</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>69.54748194732522</v>
       </c>
       <c r="X7" t="n">
-        <v>223.4949672984467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>372.8578902778404</v>
       </c>
       <c r="G8" t="n">
-        <v>149.0598520397277</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465045</v>
+        <v>65.76608425465065</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164539144</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164532721</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>115.9615342899086</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>50.1900244636536</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,19 +29325,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.832332906093959e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,16 +29562,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.639251493166927e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29748,22 +29748,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.586891951416936e-14</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C32" t="n">
-        <v>6.586891951416936e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>6.586891951416936e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.586891951416936e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.586891951416936e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>6.586891951416936e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>6.586891951416936e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>6.586891951416936e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.118447633358686e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>6.586891951416936e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>6.586891951416936e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.586891951416936e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29985,13 +29985,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30000,10 +30000,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,13 +30036,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30143,40 +30143,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>9.004029889497197e-12</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30222,13 +30222,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30237,10 +30237,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,16 +30273,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30699,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>5.464171643889758e-13</v>
+        <v>-4.938527139227503e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885554</v>
+        <v>3.753577726885549</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546669</v>
+        <v>38.44132789546664</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972531</v>
+        <v>318.5802175972526</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763187</v>
+        <v>477.469162776318</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354926</v>
+        <v>592.3427171354917</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359935</v>
+        <v>659.0954050359926</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525072</v>
+        <v>669.7602577525063</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307889</v>
+        <v>632.435619230788</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983017</v>
+        <v>539.7691690983009</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542127</v>
+        <v>405.3441667542121</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864749</v>
+        <v>235.7856768864746</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140465</v>
+        <v>85.53465245140453</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.4312864994415</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508443</v>
+        <v>0.3002862181508438</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436928</v>
+        <v>2.008341139436925</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035139</v>
+        <v>19.39634732035136</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026266</v>
+        <v>69.14683309026256</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079421</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502166</v>
+        <v>324.3030514502161</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571278</v>
+        <v>436.0654741571271</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617163</v>
+        <v>508.8678404617156</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152211</v>
+        <v>522.3360580152203</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519081</v>
+        <v>477.8354464519073</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947587</v>
+        <v>383.5050724947581</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.36298474637</v>
+        <v>256.3629847463696</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204786</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366397</v>
+        <v>37.30405581366391</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133931</v>
+        <v>8.095024154133919</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.132127706541903</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752558</v>
+        <v>1.683725746752556</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415877</v>
+        <v>50.63422518415869</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954057</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772517</v>
+        <v>195.6183185772514</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490122</v>
+        <v>250.3240987490118</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.931664102312</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462348</v>
+        <v>257.6559590462344</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046253</v>
+        <v>237.986981004625</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708727</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939799</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307409</v>
+        <v>75.70643221307398</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658775</v>
+        <v>29.34274778658771</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942746</v>
+        <v>7.194100917942736</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650327</v>
+        <v>0.09183958618650315</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,19 +31852,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32083,7 +32083,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,25 +34207,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,25 +34444,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089036</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877691</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.2029511204537</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827497113</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089027</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659563</v>
@@ -35032,7 +35032,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250135</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649641</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705668</v>
+        <v>137.5343130705663</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313381</v>
+        <v>257.3793117313375</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655054</v>
+        <v>356.5763021655045</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087208</v>
+        <v>428.7491718087199</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559163</v>
+        <v>440.3471941559154</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091022</v>
+        <v>402.3374078091013</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430322</v>
+        <v>308.5361733430314</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797632</v>
+        <v>183.0384768797626</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234278</v>
+        <v>20.20013907234244</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127574</v>
+        <v>62.90656844127545</v>
       </c>
       <c r="K9" t="n">
-        <v>396.9388283579952</v>
+        <v>396.9388283579931</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772536</v>
+        <v>297.511094377253</v>
       </c>
       <c r="M9" t="n">
-        <v>366.733806539698</v>
+        <v>366.7338065396972</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318878</v>
+        <v>390.994345931887</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074636</v>
+        <v>335.2392020074629</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203656</v>
+        <v>567.993433720365</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603485</v>
+        <v>116.3812106603481</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873308</v>
+        <v>25.6802301787329</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513686</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.914124009328</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641529</v>
+        <v>303.5155410641526</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.788131425463</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918665</v>
+        <v>262.5721089186646</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357664</v>
+        <v>200.9175350357662</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228576</v>
+        <v>54.82702814228553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.86608439025</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096439</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191314</v>
@@ -37475,16 +37475,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243166</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
